--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FB8D3-40EA-4E7A-B863-230DFE50FF6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6243B-42D2-41C7-AEF5-A886AE0D6B74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Excel 1</t>
   </si>
@@ -28,10 +28,19 @@
     <t>Excel 2</t>
   </si>
   <si>
-    <t>Testing for Excel</t>
-  </si>
-  <si>
     <t>Only First Row</t>
+  </si>
+  <si>
+    <t>Test Case 2</t>
+  </si>
+  <si>
+    <t>BR_1</t>
+  </si>
+  <si>
+    <t>Testing for Excel Changes</t>
+  </si>
+  <si>
+    <t>Tyest Add Column</t>
   </si>
 </sst>
 </file>
@@ -349,25 +358,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6243B-42D2-41C7-AEF5-A886AE0D6B74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF025D-163D-4BD2-8CBE-31BC01865C65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Excel 1</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Tyest Add Column</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test Prathamesh Added</t>
+  </si>
+  <si>
+    <t>Test Prathamesh column added</t>
   </si>
 </sst>
 </file>
@@ -358,15 +367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -376,22 +385,33 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
